--- a/AAII_Financials/Quarterly/VYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>VYND</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -739,10 +743,13 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -756,22 +763,25 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
-      </c>
-      <c r="J9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -788,19 +798,22 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +964,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -953,7 +980,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -965,10 +992,13 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -996,8 +1026,11 @@
       <c r="K18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1049,8 +1086,8 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,8 +1136,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1125,8 +1168,11 @@
       <c r="K23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,8 +1232,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1212,8 +1264,11 @@
       <c r="K26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1241,8 +1296,11 @@
       <c r="K27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,8 +1456,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1415,8 +1488,11 @@
       <c r="K33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,8 +1520,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1473,42 +1552,48 @@
       <c r="K35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1545,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1609,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -1618,10 +1711,13 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1675,11 +1774,14 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1702,13 +1804,16 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,28 +1873,31 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,28 +1969,31 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,8 +2033,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1934,13 +2060,16 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,16 +2095,17 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -1986,7 +2117,7 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2008,8 +2142,8 @@
       <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2023,8 +2157,11 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2052,8 +2189,11 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2064,7 +2204,7 @@
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -2073,7 +2213,7 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,19 +2381,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
@@ -2247,7 +2405,7 @@
         <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-1300</v>
       </c>
       <c r="G72" s="3">
         <v>-1300</v>
       </c>
       <c r="H72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-1000</v>
       </c>
       <c r="K72" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,8 +2683,11 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2509,28 +2695,31 @@
         <v>-300</v>
       </c>
       <c r="E76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3">
-        <v>-100</v>
-      </c>
       <c r="G76" s="3">
         <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,42 +2747,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2621,8 +2816,11 @@
       <c r="K81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2645,8 +2844,8 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2835,10 +3052,13 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,22 +3338,25 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>VYND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,62 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -734,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -746,10 +749,13 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,22 +772,25 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
-      </c>
-      <c r="K9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,19 +810,22 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,8 +990,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -983,7 +1009,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -995,10 +1021,13 @@
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1029,8 +1058,11 @@
       <c r="L18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1075,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,8 +1108,11 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1089,8 +1125,8 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>-100</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
@@ -1107,8 +1143,11 @@
       <c r="L21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,8 +1178,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1171,8 +1213,11 @@
       <c r="L23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1248,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,8 +1283,11 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1267,8 +1318,11 @@
       <c r="L26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1299,8 +1353,11 @@
       <c r="L27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1493,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1459,8 +1528,11 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1491,8 +1563,11 @@
       <c r="L33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,8 +1598,11 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1555,45 +1633,51 @@
       <c r="L35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1705,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1635,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -1652,8 +1738,11 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1773,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1705,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -1714,10 +1806,13 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1843,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1777,16 +1875,19 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -1807,13 +1908,16 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1948,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1876,8 +1983,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2088,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2123,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,13 +2158,16 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -2063,13 +2188,16 @@
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,19 +2225,20 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -2120,7 +2250,7 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -2128,8 +2258,11 @@
       <c r="L57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2145,8 +2278,8 @@
       <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -2160,8 +2293,11 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2192,13 +2328,16 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
@@ -2207,7 +2346,7 @@
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -2216,7 +2355,7 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -2224,8 +2363,11 @@
       <c r="L60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2398,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2433,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,22 +2538,25 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
@@ -2408,7 +2565,7 @@
         <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
@@ -2416,8 +2573,11 @@
       <c r="L66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1300</v>
       </c>
       <c r="H72" s="3">
         <v>-1300</v>
       </c>
       <c r="I72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-1000</v>
       </c>
       <c r="L72" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E76" s="3">
         <v>-300</v>
       </c>
       <c r="F76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
-        <v>-100</v>
-      </c>
       <c r="H76" s="3">
         <v>-100</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,45 +2938,51 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2819,8 +3013,11 @@
       <c r="L81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,19 +3030,20 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -2865,8 +3063,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3238,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3055,10 +3271,13 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3290,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3323,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3393,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3428,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,25 +3583,28 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -3373,8 +3618,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3653,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3435,6 +3686,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>VYND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,66 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -752,10 +756,13 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -775,22 +782,25 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
-      </c>
-      <c r="L9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,19 +823,22 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,8 +1017,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1039,7 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -1024,10 +1051,13 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1061,8 +1091,11 @@
       <c r="M18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1111,8 +1145,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1128,8 +1165,8 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
@@ -1146,8 +1183,11 @@
       <c r="M21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,8 +1221,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1216,8 +1259,11 @@
       <c r="M23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,8 +1335,11 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1321,8 +1373,11 @@
       <c r="M26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1356,8 +1411,11 @@
       <c r="M27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1531,8 +1601,11 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1566,8 +1639,11 @@
       <c r="M33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,8 +1677,11 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1636,48 +1715,54 @@
       <c r="M35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,8 +1792,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1724,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1741,8 +1828,11 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,8 +1866,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1800,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -1809,10 +1902,13 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,8 +1942,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1878,11 +1977,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1890,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -1911,13 +2013,16 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,8 +2056,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,8 +2284,11 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2170,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
@@ -2191,13 +2317,16 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,8 +2356,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2235,13 +2366,13 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -2253,7 +2384,7 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -2261,8 +2392,11 @@
       <c r="M57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2281,8 +2415,8 @@
       <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2296,8 +2430,11 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2331,8 +2468,11 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2340,7 +2480,7 @@
         <v>400</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
@@ -2349,7 +2489,7 @@
         <v>300</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -2358,7 +2498,7 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -2366,8 +2506,11 @@
       <c r="M60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,8 +2544,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,8 +2696,11 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2550,16 +2708,16 @@
         <v>400</v>
       </c>
       <c r="E66" s="3">
+        <v>400</v>
+      </c>
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -2568,7 +2726,7 @@
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1300</v>
       </c>
       <c r="I72" s="3">
         <v>-1300</v>
       </c>
       <c r="J72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-1000</v>
       </c>
       <c r="M72" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,8 +3054,11 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2880,34 +3066,37 @@
         <v>-400</v>
       </c>
       <c r="E76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F76" s="3">
         <v>-300</v>
       </c>
       <c r="G76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
-        <v>-100</v>
-      </c>
       <c r="I76" s="3">
         <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
       <c r="L76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M76" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,48 +3130,54 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3016,8 +3211,11 @@
       <c r="M81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3066,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3455,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3274,10 +3491,13 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3326,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3431,8 +3661,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,8 +3829,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3597,17 +3843,17 @@
       <c r="E100" s="3">
         <v>0</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3621,8 +3867,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,8 +3905,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3689,6 +3941,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>VYND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,74 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -759,10 +767,16 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -785,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -793,14 +807,20 @@
       <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,19 +846,25 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,8 +1070,10 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1042,10 +1096,10 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1054,10 +1108,16 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,8 +1154,14 @@
       <c r="N18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1148,19 +1216,25 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1168,11 +1242,11 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-100</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
@@ -1186,8 +1260,14 @@
       <c r="N21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,8 +1304,14 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1262,8 +1348,14 @@
       <c r="N23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,8 +1436,14 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1376,8 +1480,14 @@
       <c r="N26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1414,8 +1524,14 @@
       <c r="N27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1604,8 +1744,14 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1642,8 +1788,14 @@
       <c r="N33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,8 +1832,14 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1718,51 +1876,63 @@
       <c r="N35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,8 +1965,10 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1814,13 +1988,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -1831,8 +2005,14 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +2049,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1896,19 +2082,25 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1980,11 +2178,17 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1995,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -2016,13 +2220,19 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,8 +2269,14 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2097,8 +2313,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,8 +2533,14 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2299,10 +2551,10 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
@@ -2320,13 +2572,19 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2617,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2369,7 +2631,7 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -2378,7 +2640,7 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -2387,24 +2649,30 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2418,11 +2686,11 @@
       <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>100</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -2433,8 +2701,14 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2471,46 +2745,58 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,8 +2833,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,19 +3009,25 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>500</v>
+      </c>
+      <c r="F66" s="3">
         <v>400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
@@ -2720,25 +3036,31 @@
         <v>300</v>
       </c>
       <c r="I66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>100</v>
+      </c>
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,8 +3423,14 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3069,34 +3441,40 @@
         <v>-400</v>
       </c>
       <c r="F76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-100</v>
-      </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>100</v>
+      </c>
+      <c r="P76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,51 +3511,63 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3214,8 +3604,14 @@
       <c r="N81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3886,14 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3494,10 +3928,16 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3846,20 +4338,20 @@
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -3870,8 +4362,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4406,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3944,6 +4448,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>VYND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -773,10 +776,13 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,22 +811,25 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
-      </c>
-      <c r="O9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,19 +861,22 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1097,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1102,7 +1128,7 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1114,10 +1140,13 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1160,8 +1189,11 @@
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,13 +1267,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>-100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1248,8 +1284,8 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
-        <v>-100</v>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
@@ -1266,8 +1302,11 @@
       <c r="P21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,8 +1349,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1354,8 +1396,11 @@
       <c r="P23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1490,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1486,8 +1537,11 @@
       <c r="P26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1530,8 +1584,11 @@
       <c r="P27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1819,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1794,8 +1866,11 @@
       <c r="P33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1913,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1882,57 +1960,63 @@
       <c r="P35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1994,10 +2080,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2088,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -2097,10 +2189,13 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2184,11 +2282,14 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2205,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -2226,13 +2327,16 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2661,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2557,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
@@ -2578,13 +2703,16 @@
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2637,13 +2767,13 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -2655,7 +2785,7 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -2663,19 +2793,22 @@
       <c r="P57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -2692,8 +2825,8 @@
       <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -2707,8 +2840,11 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,8 +2887,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2763,13 +2902,13 @@
         <v>500</v>
       </c>
       <c r="F60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
@@ -2778,7 +2917,7 @@
         <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -2787,7 +2926,7 @@
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
@@ -2795,8 +2934,11 @@
       <c r="P60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3169,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3027,22 +3184,22 @@
         <v>500</v>
       </c>
       <c r="F66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
       </c>
       <c r="H66" s="3">
+        <v>400</v>
+      </c>
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
@@ -3051,7 +3208,7 @@
         <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="E72" s="3">
         <v>-1900</v>
       </c>
       <c r="F72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-1800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-1300</v>
       </c>
       <c r="L72" s="3">
         <v>-1300</v>
       </c>
       <c r="M72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-1200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-1000</v>
       </c>
       <c r="P72" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,13 +3611,16 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E76" s="3">
         <v>-400</v>
@@ -3447,34 +3632,37 @@
         <v>-400</v>
       </c>
       <c r="H76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I76" s="3">
         <v>-300</v>
       </c>
       <c r="J76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
-        <v>-100</v>
-      </c>
       <c r="L76" s="3">
         <v>-100</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
       <c r="O76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P76" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3705,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3610,8 +3804,11 @@
       <c r="P81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,13 +4105,16 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -3934,10 +4150,13 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,13 +4566,16 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4344,17 +4589,17 @@
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>VYND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,89 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,22 +779,31 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -814,22 +835,31 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
-      </c>
-      <c r="P9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,19 +894,28 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +933,11 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +983,17 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1039,17 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1095,17 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1151,17 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1176,11 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1131,22 +1212,31 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1192,8 +1282,17 @@
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1310,11 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,8 +1360,17 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,34 +1378,34 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-100</v>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
@@ -1305,8 +1416,17 @@
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,8 +1472,17 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1399,8 +1528,17 @@
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1584,17 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1640,17 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1540,8 +1696,17 @@
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1587,8 +1752,17 @@
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1808,17 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1864,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1920,17 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1976,17 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,8 +2032,17 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1869,8 +2088,17 @@
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +2144,17 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1963,60 +2200,78 @@
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2289,11 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2311,11 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2083,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2092,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2100,8 +2361,17 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2417,17 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2183,19 +2462,28 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2529,17 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2285,11 +2582,20 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2309,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
@@ -2330,13 +2636,22 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2697,17 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,8 +2753,17 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2809,17 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2865,17 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2921,17 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2977,17 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +3033,17 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2685,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
@@ -2706,13 +3084,22 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +3117,11 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +3139,11 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2770,55 +3163,64 @@
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>300</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
@@ -2828,14 +3230,14 @@
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
+        <v>100</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -2843,8 +3245,17 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2890,55 +3301,73 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>600</v>
+      </c>
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
-        <v>100</v>
-      </c>
-      <c r="P60" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3413,17 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3469,17 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3525,17 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3581,17 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3637,73 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>600</v>
+      </c>
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>300</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
       </c>
       <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
+        <v>400</v>
+      </c>
+      <c r="N66" s="3">
+        <v>300</v>
+      </c>
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3">
-        <v>100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3721,11 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3771,17 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3827,17 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3883,17 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3939,73 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-2000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-1900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-1900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-1800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-1700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-1600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-1500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-1400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-1300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-1300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-1200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-1100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +4051,17 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +4107,17 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +4163,73 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-500</v>
       </c>
-      <c r="E76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-400</v>
-      </c>
       <c r="G76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
       </c>
       <c r="I76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <v>100</v>
+      </c>
+      <c r="T76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,60 +4275,78 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3807,8 +4392,17 @@
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4420,11 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4470,17 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4526,17 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4582,17 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4638,17 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4694,17 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,13 +4750,22 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4123,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -4153,10 +4804,19 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4834,11 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4884,17 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4940,17 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4996,17 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +5052,17 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +5080,11 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +5130,17 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +5186,17 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5242,17 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,13 +5298,22 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4584,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -4592,23 +5330,23 @@
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -4616,8 +5354,17 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5410,17 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +5464,15 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>VYND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,100 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,22 +799,31 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -844,22 +864,31 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
+      <c r="W9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -903,19 +932,28 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +974,11 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1033,17 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1098,17 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1163,17 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1228,17 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1256,11 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1221,22 +1301,31 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1291,8 +1380,17 @@
       <c r="T18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1411,11 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1470,17 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1380,41 +1490,41 @@
       <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-100</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
@@ -1425,8 +1535,17 @@
       <c r="T21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1600,17 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1537,8 +1665,17 @@
       <c r="T23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1730,17 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1795,17 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1705,8 +1860,17 @@
       <c r="T26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1761,8 +1925,17 @@
       <c r="T27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1990,17 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +2055,17 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2120,17 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2185,17 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2250,17 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2097,8 +2315,17 @@
       <c r="T33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2380,17 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2209,69 +2445,87 @@
       <c r="T35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2546,11 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2571,11 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2353,25 +2613,34 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2695,17 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2471,19 +2749,28 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="W43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2825,17 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2591,11 +2887,20 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2624,13 +2929,13 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
@@ -2645,13 +2950,22 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +3020,17 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +3085,17 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3150,17 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3215,17 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3280,17 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3345,17 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3410,17 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3072,13 +3449,13 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
@@ -3093,13 +3470,22 @@
         <v>100</v>
       </c>
       <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3506,11 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3531,11 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3172,63 +3564,72 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="W57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>400</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -3239,14 +3640,14 @@
       <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>100</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3254,8 +3655,17 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3310,64 +3720,82 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>700</v>
+      </c>
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3850,17 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3915,17 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3980,17 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +4045,17 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +4110,82 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>700</v>
+      </c>
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>300</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
       </c>
       <c r="N66" s="3">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>300</v>
+      </c>
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4206,11 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4265,17 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4330,17 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4395,17 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4460,82 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-2200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-2100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-2100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-2000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-1900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-1900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-1800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-1700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-1600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-1500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-1400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-1300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-1200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-1100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-1000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4590,17 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4655,17 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4720,82 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-400</v>
       </c>
       <c r="K76" s="3">
         <v>-400</v>
       </c>
       <c r="L76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
         <v>100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4850,87 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4401,8 +4985,17 @@
       <c r="T81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +5016,11 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +5075,17 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +5140,17 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5205,17 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5270,17 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5335,17 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5400,17 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,13 +5418,13 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -4783,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -4813,10 +5463,19 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5496,11 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5555,17 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5620,17 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5685,17 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5750,17 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5781,11 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5840,17 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5905,17 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5970,17 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +6035,17 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,55 +6053,64 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3" t="s">
+      <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +6165,17 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +6228,15 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>VYND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
         <v>100</v>
@@ -820,10 +824,13 @@
         <v>100</v>
       </c>
       <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -873,22 +880,25 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>100</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
       <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>100</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -941,19 +951,22 @@
         <v>0</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1310,7 +1337,7 @@
         <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
@@ -1322,10 +1349,13 @@
         <v>200</v>
       </c>
       <c r="W17" s="3">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1490,32 +1527,32 @@
       <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
+      <c r="N21" s="3">
+        <v>-100</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
@@ -1526,8 +1563,8 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
-        <v>-100</v>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1649,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1869,8 +1921,11 @@
       <c r="W26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2329,11 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2622,11 +2709,11 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2758,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
@@ -2767,10 +2860,13 @@
         <v>100</v>
       </c>
       <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2896,11 +2995,14 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2938,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
@@ -2959,13 +3061,16 @@
         <v>100</v>
       </c>
       <c r="V46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3458,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
@@ -3479,13 +3605,16 @@
         <v>100</v>
       </c>
       <c r="V54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3573,13 +3704,13 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
@@ -3591,7 +3722,7 @@
         <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,7 +3742,7 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>400</v>
@@ -3617,7 +3751,7 @@
         <v>400</v>
       </c>
       <c r="H58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
@@ -3626,13 +3760,13 @@
         <v>300</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -3649,8 +3783,8 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
+      <c r="S58" s="3">
+        <v>100</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3729,13 +3866,16 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
@@ -3744,7 +3884,7 @@
         <v>700</v>
       </c>
       <c r="G60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H60" s="3">
         <v>600</v>
@@ -3753,7 +3893,7 @@
         <v>600</v>
       </c>
       <c r="J60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>500</v>
@@ -3762,13 +3902,13 @@
         <v>500</v>
       </c>
       <c r="M60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
       </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
@@ -3777,7 +3917,7 @@
         <v>300</v>
       </c>
       <c r="R60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
@@ -3786,7 +3926,7 @@
         <v>200</v>
       </c>
       <c r="U60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,13 +4274,16 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
@@ -4134,7 +4292,7 @@
         <v>700</v>
       </c>
       <c r="G66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H66" s="3">
         <v>600</v>
@@ -4143,7 +4301,7 @@
         <v>600</v>
       </c>
       <c r="J66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>500</v>
@@ -4152,22 +4310,22 @@
         <v>500</v>
       </c>
       <c r="M66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
       </c>
       <c r="O66" s="3">
+        <v>400</v>
+      </c>
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
@@ -4176,7 +4334,7 @@
         <v>200</v>
       </c>
       <c r="U66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>100</v>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2400</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-2300</v>
       </c>
       <c r="F72" s="3">
         <v>-2300</v>
       </c>
       <c r="G72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-2100</v>
       </c>
       <c r="I72" s="3">
         <v>-2100</v>
       </c>
       <c r="J72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-1900</v>
       </c>
       <c r="L72" s="3">
         <v>-1900</v>
       </c>
       <c r="M72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N72" s="3">
         <v>-1800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-1300</v>
       </c>
       <c r="S72" s="3">
         <v>-1300</v>
       </c>
       <c r="T72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="U72" s="3">
         <v>-1200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-1000</v>
       </c>
       <c r="W72" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4741,7 +4927,7 @@
         <v>-700</v>
       </c>
       <c r="F76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="G76" s="3">
         <v>-600</v>
@@ -4750,13 +4936,13 @@
         <v>-600</v>
       </c>
       <c r="I76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J76" s="3">
         <v>-500</v>
       </c>
       <c r="K76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="L76" s="3">
         <v>-400</v>
@@ -4768,34 +4954,37 @@
         <v>-400</v>
       </c>
       <c r="O76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
       </c>
       <c r="Q76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
-        <v>-100</v>
-      </c>
       <c r="S76" s="3">
         <v>-100</v>
       </c>
       <c r="T76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U76" s="3">
         <v>0</v>
       </c>
       <c r="V76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W76" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5418,10 +5635,10 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -5433,10 +5650,10 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -5472,10 +5689,13 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,11 +6299,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -6068,11 +6314,11 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6085,18 +6331,18 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>
